--- a/TestData/Test_Data.xlsx
+++ b/TestData/Test_Data.xlsx
@@ -13,9 +13,10 @@
     <sheet state="visible" name="Real Estate" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="Insurance" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Financial Services" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="General Bill" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Waste" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Waste" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="General Bill" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="All Wallet" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="All BillPayment" sheetId="14" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="328">
   <si>
     <t>Business ID</t>
   </si>
@@ -916,6 +917,24 @@
     <t>000000000134</t>
   </si>
   <si>
+    <t>Viphou Phopudh Utility</t>
+  </si>
+  <si>
+    <t>00574</t>
+  </si>
+  <si>
+    <t>00297</t>
+  </si>
+  <si>
+    <t>00298</t>
+  </si>
+  <si>
+    <t>01344</t>
+  </si>
+  <si>
+    <t>00299</t>
+  </si>
+  <si>
     <t>Banh Ji</t>
   </si>
   <si>
@@ -952,32 +971,50 @@
     <t>INV2010000013-632</t>
   </si>
   <si>
-    <t>Viphou Phopudh Utility</t>
-  </si>
-  <si>
-    <t>00574</t>
-  </si>
-  <si>
-    <t>00297</t>
-  </si>
-  <si>
-    <t>00298</t>
-  </si>
-  <si>
-    <t>01344</t>
-  </si>
-  <si>
-    <t>00299</t>
-  </si>
-  <si>
     <t>Wallet Type</t>
+  </si>
+  <si>
+    <t>Consumber No</t>
+  </si>
+  <si>
+    <t>Ly Hour Veluy</t>
+  </si>
+  <si>
+    <t>True Money</t>
+  </si>
+  <si>
+    <t>Pipay</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>Bill Type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Water Supply</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Financial Service</t>
+  </si>
+  <si>
+    <t>Waste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1050,8 +1087,12 @@
       <color theme="1"/>
       <name val="Khmer"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="&quot;JetBrains Mono&quot;"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,8 +1147,44 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor rgb="FF34A853"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -1123,11 +1200,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1244,17 +1351,72 @@
     <xf borderId="1" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="8" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="11" fontId="8" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,6 +1443,10 @@
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2146,6 +2312,73 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.75"/>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2167,157 +2400,90 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>298</v>
+      <c r="A2" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>299</v>
+      <c r="A3" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>300</v>
+      <c r="A4" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>301</v>
+      <c r="A5" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>302</v>
+      <c r="A6" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="41" t="s">
         <v>303</v>
       </c>
+      <c r="B7" s="42" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>304</v>
+      <c r="A8" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>305</v>
+      <c r="A9" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>306</v>
+      <c r="A10" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>307</v>
+      <c r="A11" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="18.75"/>
-    <col customWidth="1" min="2" max="2" width="16.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="A12" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2335,10 +2501,299 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.25"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="43" t="s">
         <v>315</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="45">
+        <v>8.7855868E7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="45">
+        <v>7.8222911E8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="45">
+        <v>8.5517718671E10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="45">
+        <v>606131.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.13"/>
+    <col customWidth="1" min="2" max="2" width="32.63"/>
+    <col customWidth="1" min="3" max="3" width="16.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="56" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
